--- a/design-document/ScreenMain.xlsx
+++ b/design-document/ScreenMain.xlsx
@@ -11,12 +11,17 @@
     <sheet name="02_Item Definition" sheetId="4" r:id="rId2"/>
     <sheet name="03_Definition" sheetId="2" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$P$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item Definition'!$A$1:$N$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$L$45</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'01_Screen Layout'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'02_Item Definition'!$1:$2</definedName>
+    <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
+    <definedName name="ああ">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -240,7 +245,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -538,10 +543,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,23 +642,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,105 +670,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -771,11 +683,108 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2453,6 +2462,29 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="01_Screen Layout"/>
+      <sheetName val="02_Item Definition"/>
+      <sheetName val="03_Definition"/>
+      <sheetName val="04_check Condition Monadic"/>
+      <sheetName val="05_Check Condition"/>
+      <sheetName val="06_Mapping Class, Action"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3397,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
@@ -3415,312 +3447,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="66" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="67"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="106.85" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="62"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="65"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:12" ht="23.35" customHeight="1">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="50"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="74"/>
     </row>
     <row r="11" spans="1:12" ht="13.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="37" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="61"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="34" t="s">
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
     </row>
     <row r="17" spans="1:12" ht="25.2" customHeight="1">
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="1:12" ht="27" customHeight="1">
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
     </row>
     <row r="19" spans="1:12" ht="24.7" customHeight="1">
       <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="61"/>
     </row>
     <row r="20" spans="1:12" ht="26.35" customHeight="1">
       <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
     </row>
     <row r="21" spans="1:12" ht="24.7" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" ht="25.85" customHeight="1"/>
     <row r="23" spans="1:12" ht="14.35" customHeight="1"/>
@@ -3729,111 +3761,140 @@
     <row r="27" spans="1:12" ht="15" customHeight="1"/>
     <row r="28" spans="1:12" ht="15" customHeight="1"/>
     <row r="51" spans="1:11" ht="20.7">
-      <c r="A51" s="75"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
     </row>
     <row r="54" spans="1:11" ht="13.35">
-      <c r="A54" s="73"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="74"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
     </row>
     <row r="55" spans="1:11" ht="13.35">
-      <c r="A55" s="73"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="74"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="73"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="68"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="68"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="68"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="68"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="A60:K60"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -3850,35 +3911,6 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:L21"/>
     <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:L14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/design-document/ScreenMain.xlsx
+++ b/design-document/ScreenMain.xlsx
@@ -4,16 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10547" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="3" r:id="rId1"/>
     <sheet name="02_Item Definition" sheetId="4" r:id="rId2"/>
     <sheet name="03_Definition" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$P$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item Definition'!$A$1:$N$39</definedName>
@@ -33,46 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
-  <si>
-    <t>- Khi admin click vào tabItem Setting sau đó hệ thống chuyển sang form Setting</t>
-  </si>
-  <si>
-    <t>Click vào tabItem Thiết Lập</t>
-  </si>
-  <si>
-    <t>Click vào tabItem Quản Lý Lớp</t>
-  </si>
-  <si>
-    <t>- Khi admin click vào tabItem Quản Lý Hội Phí sau đó hệ thống chuyển sang form Quản Lý Hội Phí</t>
-  </si>
-  <si>
-    <t>Click vào tabItem Quản Lý Hội Phí</t>
-  </si>
-  <si>
-    <t>- Khi admin click vào tabItem Tìm Kiếm Hội Viên sau đó click vào tabItem Tìm Kiếm Nhanh sau đó hệ thống chuyển sang form Tìm Kiếm Nhanh</t>
-  </si>
-  <si>
-    <t>Click vào tabItem Tìm Kiếm Nhanh</t>
-  </si>
-  <si>
-    <t>- Khi admin click vào tabItem Tìm Kiếm Hội Viên sau đó click vào tabItem Tìm Kiếm Theo Điều Kiện sau đó hệ thống chuyển sang form Tìm Kiếm Theo Điều Kiện</t>
-  </si>
-  <si>
-    <t>Click vào tabItem Tìm Kiếm Theo Điều Kiện</t>
-  </si>
-  <si>
-    <t>- Khi admin click vào tabItem Tìm Kiếm Hội Viên tabItem sổ ra tabControl trong đó sẽ có 2 tabItem Tìm Kiếm Nhanh và Tìm Kiếm Theo Điều Kiện</t>
-  </si>
-  <si>
-    <t>Click vào tabItem Tìm Kiếm Hội Viên</t>
-  </si>
-  <si>
-    <t>- Khi admin click vào tabItem Đăng Ký Hội Viên sau đó  hệ thống chuyển sang form Đăng Hội Viên</t>
-  </si>
-  <si>
-    <t>Click vào tabItem Đăng Ký Hội Viên</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
   <si>
     <t>Process details</t>
   </si>
@@ -129,48 +87,24 @@
     <t>-</t>
   </si>
   <si>
-    <t>tabItem</t>
-  </si>
-  <si>
-    <t>tcSetting</t>
-  </si>
-  <si>
     <t>Setting</t>
   </si>
   <si>
-    <t>tcQuanLyLop</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quản Lý Lớp </t>
   </si>
   <si>
-    <t>tcHoiPhi</t>
-  </si>
-  <si>
     <t>Quản Lý Hội Phí</t>
   </si>
   <si>
-    <t>tcTimKiemTheoDieuKien</t>
-  </si>
-  <si>
     <t>Tìm Kiếm Theo Điều Kiện</t>
   </si>
   <si>
-    <t>tcTimKiemNhanh</t>
-  </si>
-  <si>
     <t>Tìm Kiếm Nhanh</t>
   </si>
   <si>
-    <t>tcTimKiemHoiVien</t>
-  </si>
-  <si>
     <t>Tìm Kiếm Hội Viên</t>
   </si>
   <si>
-    <t>tcDangKyHoiVien</t>
-  </si>
-  <si>
     <t>Đăng Ký Hội Viên</t>
   </si>
   <si>
@@ -187,9 +121,6 @@
   </si>
   <si>
     <t>Code ID</t>
-  </si>
-  <si>
-    <t>have to</t>
   </si>
   <si>
     <t>Type</t>
@@ -217,10 +148,79 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>Ứng dụng khởi động</t>
-  </si>
-  <si>
-    <t>TabControl sẽ được load lên gồm</t>
+    <t>Hiển thị form Main</t>
+  </si>
+  <si>
+    <t>Click vào button Đăng Ký Hội Viên</t>
+  </si>
+  <si>
+    <t>- Khi admin click vào button Đăng Ký Hội Viên sau đó  hệ thống chuyển sang form Đăng Hội Viên</t>
+  </si>
+  <si>
+    <t>Click vào button Tìm Kiếm Hội Viên</t>
+  </si>
+  <si>
+    <t>Click vào button Tìm Kiếm Theo Điều Kiện</t>
+  </si>
+  <si>
+    <t>Click vào button Tìm Kiếm Nhanh</t>
+  </si>
+  <si>
+    <t>Click vào button Quản Lý Hội Phí</t>
+  </si>
+  <si>
+    <t>Click vào button Quản Lý Lớp</t>
+  </si>
+  <si>
+    <t>Click vào button Thiết Lập</t>
+  </si>
+  <si>
+    <t>- Khi admin click vào button Tìm Kiếm Hội Viên button sổ ra 2 button khác gồm button Tìm Kiếm Nhanh và button Tìm Kiếm Theo Điều Kiện</t>
+  </si>
+  <si>
+    <t>- Khi admin click vào button Tìm Kiếm Hội Viên sau đó click vào button Tìm Kiếm Theo Điều Kiện sau đó hệ thống chuyển sang form Tìm Kiếm Theo Điều Kiện</t>
+  </si>
+  <si>
+    <t>- Khi admin click vào button Tìm Kiếm Hội Viên sau đó click vào button Tìm Kiếm Nhanh sau đó hệ thống chuyển sang form Tìm Kiếm Nhanh</t>
+  </si>
+  <si>
+    <t>- Khi admin click vào button Quản Lý Hội Phí sau đó hệ thống chuyển sang form Quản Lý Hội Phí</t>
+  </si>
+  <si>
+    <t>- Khi admin click vào button Setting sau đó hệ thống chuyển sang form Setting</t>
+  </si>
+  <si>
+    <t>- Khi admin click vào button Quản Lý Hội Phí sau đó hệ thống chuyển sang form Quản Lý Lớp</t>
+  </si>
+  <si>
+    <t>btnDangKyHoiVien</t>
+  </si>
+  <si>
+    <t>btnTimKiemHoiVien</t>
+  </si>
+  <si>
+    <t>btnTimKiemNhanh</t>
+  </si>
+  <si>
+    <t>btnTimKiemTheoDieuKien</t>
+  </si>
+  <si>
+    <t>btnHoiPhi</t>
+  </si>
+  <si>
+    <t>btnQuanLyLop</t>
+  </si>
+  <si>
+    <t>btnSetting</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Requires</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
@@ -713,7 +713,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -722,7 +722,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -731,6 +731,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -749,28 +767,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1613,7 +1610,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="22860" y="22860"/>
-          <a:ext cx="14833600" cy="510540"/>
+          <a:ext cx="11607800" cy="510540"/>
           <a:chOff x="3" y="2"/>
           <a:chExt cx="1200" cy="52"/>
         </a:xfrm>
@@ -2069,7 +2066,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="181" y="32"/>
+            <a:off x="332" y="35"/>
             <a:ext cx="402" cy="17"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2412,7 +2409,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> thị các tabitem ch admin sử dụng</a:t>
+            <a:t> thị các button cho admin sử dụng</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2461,30 +2458,203 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2480166" cy="1986826"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="2590800"/>
+          <a:ext cx="2480166" cy="1986826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Button hiển thị gồm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Đăng Ký Hội Viên</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Tìm Kiếm Hôi Viên</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Quản Lý Hội Phí</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Quản Lý Lớp</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Thiết lập</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Trong  Tìm Kiếm Hội Viên gồm 2 button:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Tìm Kiếm Theo Điều Kiện</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-Tìm Kiếm Nhah </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="01_Screen Layout"/>
-      <sheetName val="02_Item Definition"/>
-      <sheetName val="03_Definition"/>
-      <sheetName val="04_check Condition Monadic"/>
-      <sheetName val="05_Check Condition"/>
-      <sheetName val="06_Mapping Class, Action"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2789,14 +2959,14 @@
     <col min="2" max="2" width="19.77734375" style="7" customWidth="1"/>
     <col min="3" max="3" width="22.109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="20.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="7" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="7" customWidth="1"/>
     <col min="9" max="9" width="10.109375" style="7" customWidth="1"/>
     <col min="10" max="10" width="8.109375" style="7" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="8" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="8.44140625" style="7" customWidth="1"/>
     <col min="14" max="14" width="35.33203125" style="6" customWidth="1"/>
     <col min="15" max="15" width="1.109375" style="6" customWidth="1"/>
@@ -2806,46 +2976,46 @@
     <row r="1" spans="1:14" ht="56.35" customHeight="1"/>
     <row r="2" spans="1:14" ht="18" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="17.350000000000001" customHeight="1">
@@ -2854,41 +3024,41 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.350000000000001" customHeight="1">
@@ -2897,41 +3067,41 @@
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17.350000000000001" customHeight="1">
@@ -2940,41 +3110,41 @@
         <v>3</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2983,41 +3153,41 @@
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17.350000000000001" customHeight="1">
@@ -3026,41 +3196,41 @@
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
@@ -3069,41 +3239,41 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
@@ -3112,41 +3282,41 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1">
@@ -3429,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.7"/>
@@ -3448,44 +3618,44 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G1" s="33"/>
-      <c r="H1" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
+      <c r="H1" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B2" s="35"/>
-      <c r="C2" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="35" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G2" s="35"/>
       <c r="H2" s="52" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I2" s="53"/>
       <c r="J2" s="53"/>
@@ -3494,7 +3664,7 @@
     </row>
     <row r="3" spans="1:12" ht="106.85" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="46"/>
@@ -3510,7 +3680,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="49"/>
@@ -3530,69 +3700,67 @@
     </row>
     <row r="6" spans="1:12" ht="13.35">
       <c r="A6" s="55" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-    </row>
-    <row r="9" spans="1:12" ht="23.35" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+    </row>
+    <row r="9" spans="1:12" ht="127.2" customHeight="1">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="74"/>
+      <c r="B9" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="67"/>
     </row>
     <row r="11" spans="1:12" ht="13.35">
       <c r="A11" s="55" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="40"/>
       <c r="E13" s="38" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
@@ -3602,17 +3770,17 @@
       <c r="K13" s="39"/>
       <c r="L13" s="40"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="28.85" customHeight="1">
       <c r="A14" s="3">
         <v>1</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="58"/>
       <c r="E14" s="59" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -3622,17 +3790,17 @@
       <c r="K14" s="60"/>
       <c r="L14" s="61"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="31.2" customHeight="1">
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="B15" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="59" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -3642,17 +3810,17 @@
       <c r="K15" s="60"/>
       <c r="L15" s="61"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" ht="26.35" customHeight="1">
       <c r="A16" s="3">
         <v>3</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C16" s="57"/>
       <c r="D16" s="58"/>
       <c r="E16" s="59" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -3667,12 +3835,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="58"/>
       <c r="E17" s="59" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -3687,12 +3855,12 @@
         <v>5</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="58"/>
       <c r="E18" s="59" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -3702,16 +3870,18 @@
       <c r="K18" s="60"/>
       <c r="L18" s="61"/>
     </row>
-    <row r="19" spans="1:12" ht="24.7" customHeight="1">
+    <row r="19" spans="1:12" ht="24.85" customHeight="1">
       <c r="A19" s="3">
         <v>6</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C19" s="57"/>
       <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
+      <c r="E19" s="59" t="s">
+        <v>52</v>
+      </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
@@ -3720,17 +3890,17 @@
       <c r="K19" s="60"/>
       <c r="L19" s="61"/>
     </row>
-    <row r="20" spans="1:12" ht="26.35" customHeight="1">
+    <row r="20" spans="1:12" ht="13.2" customHeight="1">
       <c r="A20" s="3">
         <v>7</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="58"/>
       <c r="E20" s="59" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
@@ -3740,7 +3910,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="61"/>
     </row>
-    <row r="21" spans="1:12" ht="24.7" customHeight="1">
+    <row r="21" spans="1:12" ht="24.85" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>

--- a/design-document/ScreenMain.xlsx
+++ b/design-document/ScreenMain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10547" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10547"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="03_Definition" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$P$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$N$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item Definition'!$A$1:$N$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$L$45</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'01_Screen Layout'!$1:$1</definedName>
@@ -642,34 +642,121 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -686,95 +773,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -822,7 +822,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="22860" y="22860"/>
-          <a:ext cx="10600615" cy="684355"/>
+          <a:ext cx="10789871" cy="684355"/>
           <a:chOff x="3" y="2"/>
           <a:chExt cx="755" cy="51"/>
         </a:xfrm>
@@ -1522,11 +1522,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>486935</xdr:colOff>
+      <xdr:colOff>486934</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>46915</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6684832" cy="4126165"/>
+    <xdr:ext cx="7561380" cy="4126165"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="14" name="Picture 1"/>
@@ -1549,8 +1549,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1174229" y="1172483"/>
-          <a:ext cx="6684832" cy="4126165"/>
+          <a:off x="1174228" y="1172483"/>
+          <a:ext cx="7561380" cy="4126165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1582,6 +1582,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>508001</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>189255</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>103529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1195295" y="1773019"/>
+          <a:ext cx="7540313" cy="6010275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2922,15 +2966,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="10" width="9" style="6"/>
     <col min="11" max="11" width="3.88671875" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="12" max="13" width="9" style="6"/>
+    <col min="14" max="14" width="11.44140625" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="55.35" customHeight="1"/>
@@ -3599,7 +3645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9:L9"/>
     </sheetView>
   </sheetViews>
@@ -3617,312 +3663,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="68" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="70"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="35" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="52" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="1:12" ht="106.85" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="76"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="51"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
     </row>
     <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" ht="127.2" customHeight="1">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="67"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="11" spans="1:12" ht="13.35">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="38" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="1:12" ht="28.85" customHeight="1">
       <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="61"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:12" ht="31.2" customHeight="1">
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="59" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="61"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:12" ht="26.35" customHeight="1">
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="61"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="1:12" ht="25.2" customHeight="1">
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:12" ht="27" customHeight="1">
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" ht="24.85" customHeight="1">
       <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="61"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:12" ht="13.2" customHeight="1">
       <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="61"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:12" ht="24.85" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
     </row>
     <row r="22" spans="1:12" ht="25.85" customHeight="1"/>
     <row r="23" spans="1:12" ht="14.35" customHeight="1"/>
@@ -3931,124 +3977,127 @@
     <row r="27" spans="1:12" ht="15" customHeight="1"/>
     <row r="28" spans="1:12" ht="15" customHeight="1"/>
     <row r="51" spans="1:11" ht="20.7">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
     </row>
     <row r="54" spans="1:11" ht="13.35">
-      <c r="A54" s="41"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
     </row>
     <row r="55" spans="1:11" ht="13.35">
-      <c r="A55" s="41"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="C3:L3"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A6:C6"/>
@@ -4065,22 +4114,19 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:L9"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:L14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/design-document/ScreenMain.xlsx
+++ b/design-document/ScreenMain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10547"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
   <si>
     <t>Process details</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
@@ -603,9 +606,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -642,14 +642,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,105 +670,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -773,8 +686,95 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1654,7 +1654,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="22860" y="22860"/>
-          <a:ext cx="11607800" cy="510540"/>
+          <a:ext cx="10454640" cy="510540"/>
           <a:chOff x="3" y="2"/>
           <a:chExt cx="1200" cy="52"/>
         </a:xfrm>
@@ -2966,11 +2966,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="10" width="9" style="6"/>
     <col min="11" max="11" width="3.88671875" style="6" customWidth="1"/>
@@ -2995,11 +2995,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="19.77734375" style="7" customWidth="1"/>
@@ -3019,63 +3019,63 @@
     <col min="16" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="56.35" customHeight="1"/>
+    <row r="1" spans="1:14" ht="56.4" customHeight="1"/>
     <row r="2" spans="1:14" ht="18" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17.350000000000001" customHeight="1">
-      <c r="A3" s="26">
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="A3" s="25">
         <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="17"/>
@@ -3085,13 +3085,13 @@
       <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="27" t="s">
+      <c r="I3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="16" t="s">
@@ -3107,18 +3107,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.350000000000001" customHeight="1">
-      <c r="A4" s="26">
+    <row r="4" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="A4" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="17"/>
@@ -3128,11 +3128,11 @@
       <c r="G4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>17</v>
+      <c r="I4" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>16</v>
@@ -3150,18 +3150,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.350000000000001" customHeight="1">
-      <c r="A5" s="26">
+    <row r="5" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="A5" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="17"/>
@@ -3171,11 +3171,11 @@
       <c r="G5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>17</v>
+      <c r="I5" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>16</v>
@@ -3194,17 +3194,17 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="17"/>
@@ -3214,13 +3214,13 @@
       <c r="G6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="23" t="s">
+      <c r="I6" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="16" t="s">
@@ -3232,22 +3232,22 @@
       <c r="M6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="N6" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17.350000000000001" customHeight="1">
-      <c r="A7" s="26">
+    <row r="7" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="A7" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="17"/>
@@ -3257,11 +3257,11 @@
       <c r="G7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>17</v>
+      <c r="I7" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>16</v>
@@ -3280,17 +3280,17 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="17"/>
@@ -3300,11 +3300,11 @@
       <c r="G8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>17</v>
+      <c r="I8" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>16</v>
@@ -3323,31 +3323,31 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>17</v>
+      <c r="I9" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>16</v>
@@ -3541,7 +3541,7 @@
       <c r="I33" s="10"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="1:13" ht="13.35">
+    <row r="34" spans="1:13" ht="13.2">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -3556,7 +3556,7 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="1:13" ht="13.35">
+    <row r="35" spans="1:13" ht="13.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -3571,7 +3571,7 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="1:13" ht="13.35">
+    <row r="36" spans="1:13" ht="13.2">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -3586,7 +3586,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
-    <row r="37" spans="1:13" ht="13.35">
+    <row r="37" spans="1:13" ht="13.2">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -3601,7 +3601,7 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" spans="1:13" ht="13.35">
+    <row r="38" spans="1:13" ht="13.2">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -3616,7 +3616,7 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
     </row>
-    <row r="39" spans="1:13" ht="13.35">
+    <row r="39" spans="1:13" ht="13.2">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -3649,7 +3649,7 @@
       <selection activeCell="E9" sqref="E9:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
@@ -3663,425 +3663,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="46"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="54" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
-    </row>
-    <row r="3" spans="1:12" ht="106.85" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
+    </row>
+    <row r="3" spans="1:12" ht="106.8" customHeight="1">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="76"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="57" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59" t="s">
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="127.2" customHeight="1">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
-    </row>
-    <row r="11" spans="1:12" ht="13.35">
-      <c r="A11" s="57" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="34" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-    </row>
-    <row r="14" spans="1:12" ht="28.85" customHeight="1">
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.8" customHeight="1">
       <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="31" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="60"/>
     </row>
     <row r="15" spans="1:12" ht="31.2" customHeight="1">
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="31" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="1:12" ht="26.35" customHeight="1">
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="60"/>
+    </row>
+    <row r="16" spans="1:12" ht="26.4" customHeight="1">
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="31" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="60"/>
     </row>
     <row r="17" spans="1:12" ht="25.2" customHeight="1">
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="31" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="60"/>
     </row>
     <row r="18" spans="1:12" ht="27" customHeight="1">
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="31" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-    </row>
-    <row r="19" spans="1:12" ht="24.85" customHeight="1">
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="60"/>
+    </row>
+    <row r="19" spans="1:12" ht="24.9" customHeight="1">
       <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="31" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="60"/>
     </row>
     <row r="20" spans="1:12" ht="13.2" customHeight="1">
       <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="31" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="1:12" ht="24.85" customHeight="1">
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="60"/>
+    </row>
+    <row r="21" spans="1:12" ht="24.9" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-    </row>
-    <row r="22" spans="1:12" ht="25.85" customHeight="1"/>
-    <row r="23" spans="1:12" ht="14.35" customHeight="1"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+    </row>
+    <row r="22" spans="1:12" ht="25.8" customHeight="1"/>
+    <row r="23" spans="1:12" ht="14.4" customHeight="1"/>
     <row r="24" spans="1:12" ht="40.200000000000003" customHeight="1"/>
-    <row r="26" spans="1:12" ht="11.35" customHeight="1"/>
+    <row r="26" spans="1:12" ht="11.4" customHeight="1"/>
     <row r="27" spans="1:12" ht="15" customHeight="1"/>
     <row r="28" spans="1:12" ht="15" customHeight="1"/>
-    <row r="51" spans="1:11" ht="20.7">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-    </row>
-    <row r="54" spans="1:11" ht="13.35">
-      <c r="A54" s="70"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-    </row>
-    <row r="55" spans="1:11" ht="13.35">
-      <c r="A55" s="70"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
+    <row r="51" spans="1:11" ht="21">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="58"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="A60:K60"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -4098,35 +4127,6 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:L21"/>
     <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:L14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/design-document/ScreenMain.xlsx
+++ b/design-document/ScreenMain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20493" windowHeight="7307"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
   <si>
     <t>Process details</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>Click vào button Trợ Giúp</t>
+  </si>
+  <si>
+    <t>- Khi admin click vào button Help sau đó hệ thống chuyển sang form Help</t>
   </si>
 </sst>
 </file>
@@ -560,9 +566,6 @@
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,11 +680,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -712,15 +727,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1519,105 +1525,36 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>486934</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>46915</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>617568</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12346</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7561380" cy="4126165"/>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>100505</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 1"/>
+        <xdr:cNvPr id="16" name="Picture 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1174228" y="1172483"/>
-          <a:ext cx="7561380" cy="4126165"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>508001</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>189255</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>103529</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1195295" y="1773019"/>
-          <a:ext cx="7540313" cy="6010275"/>
+          <a:off x="617568" y="998464"/>
+          <a:ext cx="8108079" cy="5666197"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1654,7 +1591,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="22860" y="22860"/>
-          <a:ext cx="10454640" cy="510540"/>
+          <a:ext cx="10172700" cy="510540"/>
           <a:chOff x="3" y="2"/>
           <a:chExt cx="1200" cy="52"/>
         </a:xfrm>
@@ -2966,17 +2903,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
-    <col min="1" max="10" width="9" style="6"/>
-    <col min="11" max="11" width="3.88671875" style="6" customWidth="1"/>
-    <col min="12" max="13" width="9" style="6"/>
-    <col min="14" max="14" width="11.44140625" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="6"/>
+    <col min="1" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="3.88671875" style="5" customWidth="1"/>
+    <col min="12" max="13" width="9" style="5"/>
+    <col min="14" max="14" width="11.44140625" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="55.35" customHeight="1"/>
@@ -2995,641 +2932,641 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I9"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="7" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="7" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="8" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="35.33203125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="1.109375" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="3.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="7" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="35.33203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="1.109375" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="56.4" customHeight="1"/>
+    <row r="1" spans="1:14" ht="56.5" customHeight="1"/>
     <row r="2" spans="1:14" ht="18" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
-      <c r="A3" s="25">
+    <row r="3" spans="1:14" ht="17.5" customHeight="1">
+      <c r="A3" s="24">
         <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.399999999999999" customHeight="1">
-      <c r="A4" s="25">
+    <row r="4" spans="1:14" ht="17.5" customHeight="1">
+      <c r="A4" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" customHeight="1">
-      <c r="A5" s="25">
+    <row r="5" spans="1:14" ht="17.5" customHeight="1">
+      <c r="A5" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17.399999999999999" customHeight="1">
-      <c r="A7" s="25">
+    <row r="7" spans="1:14" ht="17.5" customHeight="1">
+      <c r="A7" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="F15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="F16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="F17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="F18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="M31" s="10"/>
-    </row>
-    <row r="32" spans="5:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="M32" s="10"/>
-    </row>
-    <row r="33" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="M33" s="10"/>
-    </row>
-    <row r="34" spans="1:13" ht="13.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" spans="1:13" ht="13.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" ht="13.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="1:13" ht="13.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="1:13" ht="13.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="1:13" ht="13.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="F15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="F16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="F17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="F18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="5:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:13" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="1:13" ht="13.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" ht="13.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" ht="13.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" ht="13.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" ht="13.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" ht="13.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.43307086614173229" bottom="0.35433070866141736" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -3645,39 +3582,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:L9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="10" width="8.88671875" style="1"/>
     <col min="11" max="11" width="8.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="67" t="s">
         <v>11</v>
       </c>
@@ -3687,72 +3624,72 @@
       <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="70" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="71"/>
       <c r="E2" s="72"/>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="51" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
-    </row>
-    <row r="3" spans="1:12" ht="106.8" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+    </row>
+    <row r="3" spans="1:12" ht="106.85" customHeight="1">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="54" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.35">
+      <c r="A6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="61" t="s">
@@ -3772,13 +3709,13 @@
       <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="127.2" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="63"/>
       <c r="E9" s="64"/>
       <c r="F9" s="65"/>
@@ -3789,42 +3726,42 @@
       <c r="K9" s="65"/>
       <c r="L9" s="66"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="54" t="s">
+    <row r="11" spans="1:12" ht="13.35">
+      <c r="A11" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="37" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
-    </row>
-    <row r="14" spans="1:12" ht="28.8" customHeight="1">
-      <c r="A14" s="3">
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.85" customHeight="1">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="58" t="s">
         <v>40</v>
       </c>
@@ -3837,7 +3774,7 @@
       <c r="L14" s="60"/>
     </row>
     <row r="15" spans="1:12" ht="31.2" customHeight="1">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>2</v>
       </c>
       <c r="B15" s="73" t="s">
@@ -3856,15 +3793,15 @@
       <c r="K15" s="59"/>
       <c r="L15" s="60"/>
     </row>
-    <row r="16" spans="1:12" ht="26.4" customHeight="1">
-      <c r="A16" s="3">
+    <row r="16" spans="1:12" ht="26.5" customHeight="1">
+      <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="58" t="s">
         <v>48</v>
       </c>
@@ -3877,14 +3814,14 @@
       <c r="L16" s="60"/>
     </row>
     <row r="17" spans="1:12" ht="25.2" customHeight="1">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="58" t="s">
         <v>49</v>
       </c>
@@ -3897,14 +3834,14 @@
       <c r="L17" s="60"/>
     </row>
     <row r="18" spans="1:12" ht="27" customHeight="1">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>5</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="58" t="s">
         <v>50</v>
       </c>
@@ -3916,15 +3853,15 @@
       <c r="K18" s="59"/>
       <c r="L18" s="60"/>
     </row>
-    <row r="19" spans="1:12" ht="24.9" customHeight="1">
-      <c r="A19" s="3">
+    <row r="19" spans="1:12" ht="25" customHeight="1">
+      <c r="A19" s="2">
         <v>6</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="58" t="s">
         <v>52</v>
       </c>
@@ -3936,15 +3873,15 @@
       <c r="K19" s="59"/>
       <c r="L19" s="60"/>
     </row>
-    <row r="20" spans="1:12" ht="13.2" customHeight="1">
-      <c r="A20" s="3">
+    <row r="20" spans="1:12" ht="15.85" customHeight="1">
+      <c r="A20" s="2">
         <v>7</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="58" t="s">
         <v>51</v>
       </c>
@@ -3956,129 +3893,135 @@
       <c r="K20" s="59"/>
       <c r="L20" s="60"/>
     </row>
-    <row r="21" spans="1:12" ht="24.9" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="43"/>
+    <row r="21" spans="1:12" ht="17.350000000000001" customHeight="1">
+      <c r="A21" s="2">
+        <v>8</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-    </row>
-    <row r="22" spans="1:12" ht="25.8" customHeight="1"/>
-    <row r="23" spans="1:12" ht="14.4" customHeight="1"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47"/>
+    </row>
+    <row r="22" spans="1:12" ht="25.85" customHeight="1"/>
+    <row r="23" spans="1:12" ht="14.5" customHeight="1"/>
     <row r="24" spans="1:12" ht="40.200000000000003" customHeight="1"/>
-    <row r="26" spans="1:12" ht="11.4" customHeight="1"/>
+    <row r="26" spans="1:12" ht="11.5" customHeight="1"/>
     <row r="27" spans="1:12" ht="15" customHeight="1"/>
     <row r="28" spans="1:12" ht="15" customHeight="1"/>
-    <row r="51" spans="1:11" ht="21">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="40"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="40"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
+    <row r="51" spans="1:11" ht="20.7">
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+    </row>
+    <row r="54" spans="1:11" ht="13.35">
+      <c r="A54" s="39"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+    </row>
+    <row r="55" spans="1:11" ht="13.35">
+      <c r="A55" s="39"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="45">
